--- a/data/basic stats.xlsx
+++ b/data/basic stats.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanekercheval/OneDrive/stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanekercheval/OneDrive/gitrepos/tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1228,7 +1228,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1375,11 +1374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2131913744"/>
-        <c:axId val="-2131908592"/>
+        <c:axId val="2145148000"/>
+        <c:axId val="2145155984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131913744"/>
+        <c:axId val="2145148000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1410,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1478,7 +1476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131908592"/>
+        <c:crossAx val="2145155984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131908592"/>
+        <c:axId val="2145155984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1579,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131913744"/>
+        <c:crossAx val="2145148000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1590,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2504,7 +2500,7 @@
   <dimension ref="A1:K315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/basic stats.xlsx
+++ b/data/basic stats.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanekercheval/OneDrive/gitrepos/tools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Dropbox (Personal)\gitrepos\tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="23740" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="3580" yWindow="460" windowWidth="19460" windowHeight="8570" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chi-square" sheetId="4" r:id="rId1"/>
-    <sheet name="t-test" sheetId="6" r:id="rId2"/>
-    <sheet name="t-test simple" sheetId="5" r:id="rId3"/>
-    <sheet name="descriptive" sheetId="1" r:id="rId4"/>
-    <sheet name="possible tests" sheetId="3" r:id="rId5"/>
-    <sheet name="data" sheetId="2" r:id="rId6"/>
+    <sheet name="temp-play" sheetId="7" r:id="rId2"/>
+    <sheet name="t-test" sheetId="6" r:id="rId3"/>
+    <sheet name="t-test simple" sheetId="5" r:id="rId4"/>
+    <sheet name="descriptive" sheetId="1" r:id="rId5"/>
+    <sheet name="possible tests" sheetId="3" r:id="rId6"/>
+    <sheet name="data" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="alpha">'t-test simple'!$B$8</definedName>
@@ -40,11 +41,8 @@
     <definedName name="x_1">'t-test simple'!$B$2</definedName>
     <definedName name="x_2">'t-test simple'!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -58,7 +56,7 @@
     <author>shane kercheval</author>
   </authors>
   <commentList>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="245">
   <si>
     <t>data type</t>
   </si>
@@ -799,6 +797,18 @@
   </si>
   <si>
     <t>large sample sizes make a difference</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -958,7 +968,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1007,6 +1017,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1017,7 +1029,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1184,6 +1236,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1228,6 +1283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,37 +1384,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,11 +1430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2145148000"/>
-        <c:axId val="2145155984"/>
+        <c:axId val="-1680577328"/>
+        <c:axId val="-1680576784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145148000"/>
+        <c:axId val="-1680577328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,6 +1466,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1476,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145155984"/>
+        <c:crossAx val="-1680576784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145155984"/>
+        <c:axId val="-1680576784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,6 +1573,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1576,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145148000"/>
+        <c:crossAx val="-1680577328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,6 +1648,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2499,43 +2558,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>112</v>
       </c>
@@ -2543,7 +2602,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>111</v>
       </c>
@@ -2551,7 +2610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2562,7 +2621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
@@ -2586,7 +2645,7 @@
         <v>Women</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2629,7 +2688,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2672,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <f>SUM(B11:B12)</f>
         <v>30</v>
@@ -2686,12 +2745,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -2711,7 +2770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>103</v>
       </c>
@@ -2736,7 +2795,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>101</v>
       </c>
@@ -2761,7 +2820,7 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>104</v>
       </c>
@@ -2786,7 +2845,7 @@
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>102</v>
       </c>
@@ -2811,7 +2870,7 @@
         <v>1.5238095238095237</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>108</v>
       </c>
@@ -2820,7 +2879,7 @@
         <v>12.698412698412698</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>159</v>
       </c>
@@ -2829,7 +2888,7 @@
       </c>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>160</v>
       </c>
@@ -2838,7 +2897,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
@@ -2850,7 +2909,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2924,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>114</v>
       </c>
@@ -2877,7 +2936,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>117</v>
       </c>
@@ -2886,7 +2945,7 @@
         <v>12.698412698412698</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
@@ -2895,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2904,22 +2963,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>112</v>
       </c>
@@ -2927,7 +2986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>111</v>
       </c>
@@ -2935,7 +2994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2958,7 +3017,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>89</v>
       </c>
@@ -2985,7 +3044,7 @@
         <v>1.40625</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>90</v>
       </c>
@@ -3012,7 +3071,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
@@ -3039,7 +3098,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>92</v>
       </c>
@@ -3066,7 +3125,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>93</v>
       </c>
@@ -3093,7 +3152,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>108</v>
       </c>
@@ -3114,7 +3173,7 @@
         <v>9.9520833333333325</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>110</v>
       </c>
@@ -3122,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>109</v>
       </c>
@@ -3131,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
@@ -3146,7 +3205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>114</v>
       </c>
@@ -3158,7 +3217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>117</v>
       </c>
@@ -3167,7 +3226,7 @@
         <v>9.9520833333333325</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -3176,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -3185,27 +3244,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>112</v>
       </c>
@@ -3213,7 +3272,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>111</v>
       </c>
@@ -3221,7 +3280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
@@ -3232,7 +3291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
@@ -3243,7 +3302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -3266,7 +3325,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>0</v>
       </c>
@@ -3282,7 +3341,7 @@
         <v>24.009999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -3298,7 +3357,7 @@
         <v>41.159999999999989</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>2</v>
       </c>
@@ -3314,7 +3373,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>3</v>
       </c>
@@ -3330,7 +3389,7 @@
         <v>7.5599999999999987</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>4</v>
       </c>
@@ -3346,7 +3405,7 @@
         <v>0.80999999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="14">
         <f>SUM(B59:B63)</f>
         <v>0.99999999999999989</v>
@@ -3360,12 +3419,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <f>A59</f>
         <v>0</v>
@@ -3395,7 +3454,7 @@
         <v>0.1649354435651815</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <f t="shared" ref="A67:D67" si="13">A60</f>
         <v>1</v>
@@ -3425,7 +3484,7 @@
         <v>1.2455199222546127</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <f t="shared" ref="A68:D68" si="17">A61</f>
         <v>2</v>
@@ -3455,7 +3514,7 @@
         <v>0.47360544217687051</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
         <v>135</v>
       </c>
@@ -3484,7 +3543,7 @@
         <v>0.31743130227001304</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>108</v>
       </c>
@@ -3505,7 +3564,7 @@
         <v>2.2014921102666776</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>110</v>
       </c>
@@ -3515,7 +3574,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>109</v>
       </c>
@@ -3524,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3591,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>114</v>
       </c>
@@ -3544,7 +3603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>117</v>
       </c>
@@ -3553,7 +3612,7 @@
         <v>2.2014921102666776</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -3562,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -3574,17 +3633,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>112</v>
       </c>
@@ -3592,7 +3651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>111</v>
       </c>
@@ -3600,7 +3659,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>143</v>
       </c>
@@ -3617,7 +3676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -3639,7 +3698,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
@@ -3661,7 +3720,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>147</v>
       </c>
@@ -3686,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>148</v>
       </c>
@@ -3708,7 +3767,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -3725,7 +3784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
         <v>153</v>
       </c>
@@ -3749,7 +3808,7 @@
         <v>2.2123671497584536</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="21" t="s">
         <v>154</v>
       </c>
@@ -3773,7 +3832,7 @@
         <v>0.18164759725400451</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
         <v>155</v>
       </c>
@@ -3797,7 +3856,7 @@
         <v>1.5251505016722404</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="21" t="s">
         <v>156</v>
       </c>
@@ -3821,7 +3880,7 @@
         <v>1.8846090534979438</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="21" t="s">
         <v>157</v>
       </c>
@@ -3845,7 +3904,7 @@
         <v>0.15473684210526312</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
         <v>158</v>
       </c>
@@ -3869,7 +3928,7 @@
         <v>1.2992022792022797</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
         <v>108</v>
       </c>
@@ -3879,7 +3938,7 @@
         <v>7.2577134234901859</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
         <v>159</v>
       </c>
@@ -3888,7 +3947,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
         <v>160</v>
       </c>
@@ -3896,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>109</v>
       </c>
@@ -3908,7 +3967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>4</v>
       </c>
@@ -3916,7 +3975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>114</v>
       </c>
@@ -3925,7 +3984,7 @@
         <v>4.6051701859880909</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>117</v>
       </c>
@@ -3934,7 +3993,7 @@
         <v>7.2577134234901859</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -3946,7 +4005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -3955,12 +4014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>176</v>
       </c>
@@ -3968,7 +4027,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
@@ -3976,7 +4035,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>111</v>
       </c>
@@ -3984,7 +4043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
@@ -4001,7 +4060,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>165</v>
       </c>
@@ -4023,7 +4082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
         <v>166</v>
       </c>
@@ -4045,7 +4104,7 @@
       </c>
       <c r="F113" s="25"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
         <v>167</v>
       </c>
@@ -4065,7 +4124,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>170</v>
       </c>
@@ -4084,7 +4143,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4101,7 +4160,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="21" t="str">
         <f>CONCATENATE(B111, " - ", A112)</f>
         <v>A - clicks</v>
@@ -4127,7 +4186,7 @@
         <v>0.67411788981360443</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="21" t="str">
         <f>CONCATENATE(B111, " - ", A113)</f>
         <v>A - non-clicks</v>
@@ -4153,7 +4212,7 @@
         <v>1.5598873309684278E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="21" t="str">
         <f>CONCATENATE(C111, " - ", A112)</f>
         <v>B - clicks</v>
@@ -4179,7 +4238,7 @@
         <v>0.48398207473797239</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="21" t="str">
         <f>CONCATENATE(C111, " - ", A113)</f>
         <v>B - non-clicks</v>
@@ -4205,7 +4264,7 @@
         <v>1.1199191094077156E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="16" t="s">
         <v>108</v>
       </c>
@@ -4215,7 +4274,7 @@
         <v>1.1583679451956144</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="16" t="s">
         <v>159</v>
       </c>
@@ -4224,7 +4283,7 @@
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
         <v>160</v>
       </c>
@@ -4232,7 +4291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>109</v>
       </c>
@@ -4244,7 +4303,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4321,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>114</v>
       </c>
@@ -4274,7 +4333,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>117</v>
       </c>
@@ -4283,7 +4342,7 @@
         <v>1.1583679451956144</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>118</v>
       </c>
@@ -4293,7 +4352,7 @@
       </c>
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>119</v>
       </c>
@@ -4305,7 +4364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>178</v>
       </c>
@@ -4313,7 +4372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>180</v>
       </c>
@@ -4321,7 +4380,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>182</v>
       </c>
@@ -4329,7 +4388,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>182</v>
       </c>
@@ -4337,7 +4396,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>182</v>
       </c>
@@ -4345,7 +4404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>180</v>
       </c>
@@ -4353,7 +4412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>182</v>
       </c>
@@ -4361,7 +4420,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>182</v>
       </c>
@@ -4369,7 +4428,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>182</v>
       </c>
@@ -4377,7 +4436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>180</v>
       </c>
@@ -4385,7 +4444,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>180</v>
       </c>
@@ -4393,7 +4452,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>180</v>
       </c>
@@ -4401,7 +4460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>180</v>
       </c>
@@ -4409,7 +4468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>180</v>
       </c>
@@ -4417,7 +4476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>182</v>
       </c>
@@ -4425,7 +4484,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>180</v>
       </c>
@@ -4433,7 +4492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>182</v>
       </c>
@@ -4441,7 +4500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>180</v>
       </c>
@@ -4449,7 +4508,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>182</v>
       </c>
@@ -4457,7 +4516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>182</v>
       </c>
@@ -4465,7 +4524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>182</v>
       </c>
@@ -4473,7 +4532,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>180</v>
       </c>
@@ -4481,7 +4540,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>182</v>
       </c>
@@ -4489,7 +4548,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>112</v>
       </c>
@@ -4497,7 +4556,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>184</v>
       </c>
@@ -4505,7 +4564,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>182</v>
       </c>
@@ -4522,7 +4581,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
         <v>181</v>
       </c>
@@ -4546,7 +4605,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
         <v>183</v>
       </c>
@@ -4567,7 +4626,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
         <v>147</v>
       </c>
@@ -4588,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
         <v>170</v>
       </c>
@@ -4606,7 +4665,7 @@
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>97</v>
       </c>
@@ -4623,7 +4682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="12" t="str">
         <f>CONCATENATE(B160, " - ", A161)</f>
         <v>Cat - Over</v>
@@ -4649,7 +4708,7 @@
         <v>1.1045454545454543</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="str">
         <f>CONCATENATE(B160, " - ", A162)</f>
         <v>Cat - Under</v>
@@ -4675,7 +4734,7 @@
         <v>0.92045454545454597</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="str">
         <f>CONCATENATE(C160, " - ", A161)</f>
         <v>No Cat - Over</v>
@@ -4701,7 +4760,7 @@
         <v>1.3254545454545461</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="str">
         <f>CONCATENATE(C160, " - ", A162)</f>
         <v>No Cat - Under</v>
@@ -4727,7 +4786,7 @@
         <v>1.1045454545454543</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="16" t="s">
         <v>108</v>
       </c>
@@ -4737,7 +4796,7 @@
         <v>4.455000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="16" t="s">
         <v>159</v>
       </c>
@@ -4746,7 +4805,7 @@
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="16" t="s">
         <v>160</v>
       </c>
@@ -4754,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>109</v>
       </c>
@@ -4766,7 +4825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>114</v>
       </c>
@@ -4796,7 +4855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>117</v>
       </c>
@@ -4805,7 +4864,7 @@
         <v>4.455000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>118</v>
       </c>
@@ -4817,7 +4876,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>119</v>
       </c>
@@ -4826,28 +4885,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>189</v>
       </c>
@@ -4855,7 +4914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>191</v>
       </c>
@@ -4863,7 +4922,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -4871,7 +4930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>194</v>
       </c>
@@ -4879,7 +4938,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>191</v>
       </c>
@@ -4887,7 +4946,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>191</v>
       </c>
@@ -4895,7 +4954,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>194</v>
       </c>
@@ -4903,7 +4962,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>194</v>
       </c>
@@ -4911,7 +4970,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>194</v>
       </c>
@@ -4919,7 +4978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>191</v>
       </c>
@@ -4927,7 +4986,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>194</v>
       </c>
@@ -4935,7 +4994,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>194</v>
       </c>
@@ -4943,7 +5002,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>191</v>
       </c>
@@ -4951,7 +5010,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>191</v>
       </c>
@@ -4959,7 +5018,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>194</v>
       </c>
@@ -4967,7 +5026,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>191</v>
       </c>
@@ -4975,7 +5034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>194</v>
       </c>
@@ -4983,7 +5042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>112</v>
       </c>
@@ -4991,7 +5050,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>184</v>
       </c>
@@ -4999,7 +5058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
         <v>195</v>
       </c>
@@ -5017,7 +5076,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="s">
         <v>194</v>
       </c>
@@ -5043,7 +5102,7 @@
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="s">
         <v>191</v>
       </c>
@@ -5068,7 +5127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="s">
         <v>198</v>
       </c>
@@ -5093,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="s">
         <v>170</v>
       </c>
@@ -5114,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B212" s="30" t="s">
         <v>97</v>
       </c>
@@ -5131,7 +5190,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="str">
         <f>CONCATENATE(B206, " - ", A207)</f>
         <v>home - high school</v>
@@ -5157,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="12" t="str">
         <f>CONCATENATE(B206, " - ", A208)</f>
         <v>home - college</v>
@@ -5183,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="12" t="str">
         <f>CONCATENATE(C206, " - ", A207)</f>
         <v>birthing center - high school</v>
@@ -5209,7 +5268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="str">
         <f>CONCATENATE(C206, " - ", A208)</f>
         <v>birthing center - college</v>
@@ -5235,7 +5294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="12" t="str">
         <f>CONCATENATE(D206, " - ", A207)</f>
         <v>hospital - high school</v>
@@ -5261,7 +5320,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="12" t="str">
         <f>CONCATENATE(D206, " - ", A208)</f>
         <v>hospital - college</v>
@@ -5287,7 +5346,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="16" t="s">
         <v>108</v>
       </c>
@@ -5297,7 +5356,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="16" t="s">
         <v>159</v>
       </c>
@@ -5306,7 +5365,7 @@
       </c>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="16" t="s">
         <v>160</v>
       </c>
@@ -5314,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="12" t="s">
         <v>109</v>
       </c>
@@ -5326,7 +5385,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="12" t="s">
         <v>4</v>
       </c>
@@ -5344,7 +5403,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
         <v>114</v>
       </c>
@@ -5356,7 +5415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="12" t="s">
         <v>117</v>
       </c>
@@ -5365,7 +5424,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>118</v>
       </c>
@@ -5375,7 +5434,7 @@
       </c>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>119</v>
       </c>
@@ -5387,12 +5446,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
         <v>201</v>
       </c>
@@ -5400,7 +5459,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>203</v>
       </c>
@@ -5408,7 +5467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>203</v>
       </c>
@@ -5416,7 +5475,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>203</v>
       </c>
@@ -5424,7 +5483,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>203</v>
       </c>
@@ -5432,7 +5491,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>203</v>
       </c>
@@ -5440,7 +5499,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>203</v>
       </c>
@@ -5448,7 +5507,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>203</v>
       </c>
@@ -5456,7 +5515,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>203</v>
       </c>
@@ -5464,7 +5523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>203</v>
       </c>
@@ -5472,7 +5531,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>203</v>
       </c>
@@ -5480,7 +5539,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>203</v>
       </c>
@@ -5488,7 +5547,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>203</v>
       </c>
@@ -5496,7 +5555,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>208</v>
       </c>
@@ -5504,7 +5563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>208</v>
       </c>
@@ -5512,7 +5571,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>208</v>
       </c>
@@ -5520,7 +5579,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>208</v>
       </c>
@@ -5528,7 +5587,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>208</v>
       </c>
@@ -5536,7 +5595,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>208</v>
       </c>
@@ -5544,7 +5603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>208</v>
       </c>
@@ -5552,7 +5611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>208</v>
       </c>
@@ -5560,7 +5619,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>208</v>
       </c>
@@ -5568,7 +5627,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>208</v>
       </c>
@@ -5576,7 +5635,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>208</v>
       </c>
@@ -5584,7 +5643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>208</v>
       </c>
@@ -5592,7 +5651,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>208</v>
       </c>
@@ -5600,7 +5659,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>208</v>
       </c>
@@ -5608,7 +5667,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>208</v>
       </c>
@@ -5616,7 +5675,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>208</v>
       </c>
@@ -5624,7 +5683,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>209</v>
       </c>
@@ -5632,7 +5691,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>209</v>
       </c>
@@ -5640,7 +5699,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>209</v>
       </c>
@@ -5648,7 +5707,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>209</v>
       </c>
@@ -5656,7 +5715,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>209</v>
       </c>
@@ -5664,7 +5723,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>209</v>
       </c>
@@ -5672,7 +5731,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>209</v>
       </c>
@@ -5680,7 +5739,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>209</v>
       </c>
@@ -5688,7 +5747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>209</v>
       </c>
@@ -5696,7 +5755,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>209</v>
       </c>
@@ -5704,7 +5763,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>209</v>
       </c>
@@ -5712,7 +5771,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>209</v>
       </c>
@@ -5720,7 +5779,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>209</v>
       </c>
@@ -5728,7 +5787,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>209</v>
       </c>
@@ -5736,7 +5795,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>209</v>
       </c>
@@ -5744,7 +5803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>209</v>
       </c>
@@ -5752,7 +5811,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>209</v>
       </c>
@@ -5760,7 +5819,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>209</v>
       </c>
@@ -5768,7 +5827,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>209</v>
       </c>
@@ -5776,7 +5835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>209</v>
       </c>
@@ -5784,7 +5843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>209</v>
       </c>
@@ -5792,7 +5851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>209</v>
       </c>
@@ -5800,7 +5859,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>112</v>
       </c>
@@ -5808,7 +5867,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>184</v>
       </c>
@@ -5816,7 +5875,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
         <v>203</v>
       </c>
@@ -5836,7 +5895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="s">
         <v>204</v>
       </c>
@@ -5864,7 +5923,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="s">
         <v>205</v>
       </c>
@@ -5889,7 +5948,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="s">
         <v>206</v>
       </c>
@@ -5914,7 +5973,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="13" t="s">
         <v>207</v>
       </c>
@@ -5939,7 +5998,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="s">
         <v>198</v>
       </c>
@@ -5964,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="s">
         <v>170</v>
       </c>
@@ -5985,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B294" s="30" t="s">
         <v>97</v>
       </c>
@@ -6002,7 +6061,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="12" t="str">
         <f>CONCATENATE(B$286, " - ", A287)</f>
         <v>human resources - park</v>
@@ -6028,7 +6087,7 @@
         <v>1.2272222222222222</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="12" t="str">
         <f t="shared" ref="A296:A298" si="42">CONCATENATE(B$286, " - ", A288)</f>
         <v>human resources - restaurant</v>
@@ -6054,7 +6113,7 @@
         <v>0.1499999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="12" t="str">
         <f t="shared" si="42"/>
         <v>human resources - boss's house</v>
@@ -6080,7 +6139,7 @@
         <v>0.15515151515151521</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="12" t="str">
         <f t="shared" si="42"/>
         <v>human resources - ice skating rink</v>
@@ -6106,7 +6165,7 @@
         <v>0.9035294117647058</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="12" t="str">
         <f>CONCATENATE(C$286, " - ", A287)</f>
         <v>accounting - park</v>
@@ -6132,7 +6191,7 @@
         <v>0.18374999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="12" t="str">
         <f t="shared" ref="A300:A302" si="48">CONCATENATE(C$286, " - ", A288)</f>
         <v>accounting - restaurant</v>
@@ -6158,7 +6217,7 @@
         <v>1.2500000000000022E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="12" t="str">
         <f t="shared" si="48"/>
         <v>accounting - boss's house</v>
@@ -6184,7 +6243,7 @@
         <v>3.4404545454545454</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="12" t="str">
         <f t="shared" si="48"/>
         <v>accounting - ice skating rink</v>
@@ -6210,7 +6269,7 @@
         <v>1.0944117647058826</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="12" t="str">
         <f>CONCATENATE(D$286, " - ", A287)</f>
         <v>customer service - park</v>
@@ -6236,7 +6295,7 @@
         <v>1.401212121212122</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="12" t="str">
         <f t="shared" ref="A304:A306" si="53">CONCATENATE(D$286, " - ", A288)</f>
         <v>customer service - restaurant</v>
@@ -6262,7 +6321,7 @@
         <v>3.6363636363636424E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="12" t="str">
         <f t="shared" si="53"/>
         <v>customer service - boss's house</v>
@@ -6288,7 +6347,7 @@
         <v>1.6664462809917355</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="12" t="str">
         <f t="shared" si="53"/>
         <v>customer service - ice skating rink</v>
@@ -6314,7 +6373,7 @@
         <v>3.6149732620320792E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="16" t="s">
         <v>108</v>
       </c>
@@ -6324,7 +6383,7 @@
         <v>10.307191230486685</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="16" t="s">
         <v>159</v>
       </c>
@@ -6333,7 +6392,7 @@
       </c>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="16" t="s">
         <v>160</v>
       </c>
@@ -6341,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="12" t="s">
         <v>109</v>
       </c>
@@ -6353,7 +6412,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="12" t="s">
         <v>4</v>
       </c>
@@ -6371,7 +6430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="12" t="s">
         <v>114</v>
       </c>
@@ -6383,7 +6442,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="12" t="s">
         <v>117</v>
       </c>
@@ -6392,7 +6451,7 @@
         <v>10.307191230486685</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>118</v>
       </c>
@@ -6402,7 +6461,7 @@
       </c>
       <c r="C314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>119</v>
       </c>
@@ -6416,66 +6475,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B48">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:B77">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B104">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B130">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B183">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B178)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B226:B227">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B226)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B314:B315">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B314)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B314)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6489,15 +6548,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>7558</v>
+      </c>
+      <c r="D2" s="37">
+        <f>B2*C$6</f>
+        <v>17321.121999999999</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>-9763.1219999999994</v>
+      </c>
+      <c r="F2">
+        <f>POWER(E2,2)</f>
+        <v>95318551.186883986</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/D2</f>
+        <v>5503.0240643119996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="36">
+        <v>8.8869900000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>2968</v>
+      </c>
+      <c r="D3" s="37">
+        <f>B3*C$6</f>
+        <v>3116.0453037000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>-148.0453037000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">POWER(E3,2)</f>
+        <v>21917.411947625293</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G5" si="2">F3/D3</f>
+        <v>7.0337269877304101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0.29854732</v>
+      </c>
+      <c r="C4">
+        <v>17675</v>
+      </c>
+      <c r="D4" s="37">
+        <f>B4*C$6</f>
+        <v>10467.96468116</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7207.0353188400004</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>51941358.087007187</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>4961.9347857076782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="36">
+        <v>3.3112580000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>1687</v>
+      </c>
+      <c r="D5" s="37">
+        <f>B5*C$6</f>
+        <v>1161.0263925400002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>525.97360745999981</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>276648.23574448598</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>238.2790240790799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="10">
+        <f>SUM(B2:B5)</f>
+        <v>0.91452979999999995</v>
+      </c>
+      <c r="C6">
+        <v>35063</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>32066.158377399999</v>
+      </c>
+      <c r="G6" s="19">
+        <f>SUM(G2:G5)</f>
+        <v>10710.271601086488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <f>B7-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="19">
+        <f>CHIINV(B9,B8)</f>
+        <v>7.7794403397348582</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="19">
+        <f>G6</f>
+        <v>10710.271601086488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <f>B10&lt;=B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1" t="b">
+        <f>B10&gt;B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B13">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>229</v>
       </c>
@@ -6517,7 +6849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32</v>
       </c>
@@ -6549,7 +6881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -6581,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6613,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>39</v>
       </c>
@@ -6645,7 +6977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>26</v>
       </c>
@@ -6677,7 +7009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>36</v>
       </c>
@@ -6709,7 +7041,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12</v>
       </c>
@@ -6741,7 +7073,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -6773,7 +7105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -6805,7 +7137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13</v>
       </c>
@@ -6837,7 +7169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6869,7 +7201,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>25</v>
       </c>
@@ -6901,7 +7233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>38</v>
       </c>
@@ -6933,7 +7265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>33</v>
       </c>
@@ -6965,7 +7297,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25</v>
       </c>
@@ -6997,7 +7329,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E35" s="13" t="s">
         <v>147</v>
       </c>
@@ -7013,7 +7345,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -7021,7 +7353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -7034,7 +7366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>235</v>
       </c>
@@ -7050,7 +7382,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>236</v>
       </c>
@@ -7069,7 +7401,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -7078,7 +7410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -7089,7 +7421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -7097,7 +7429,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -7110,7 +7442,7 @@
         <v>2.0484071417952445</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -7121,7 +7453,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -7130,7 +7462,7 @@
         <v>1.3362430854349434</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -7141,7 +7473,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -7152,7 +7484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
@@ -7161,7 +7493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -7169,13 +7501,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>215</v>
       </c>
@@ -7183,7 +7515,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -7194,7 +7526,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -7205,7 +7537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7216,7 +7548,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -7225,7 +7557,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -7236,7 +7568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7244,7 +7576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -7257,7 +7589,7 @@
         <v>1.9720174778363073</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -7266,7 +7598,7 @@
         <v>0.15742028071739925</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>221</v>
       </c>
@@ -7278,12 +7610,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -7294,7 +7626,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -7305,21 +7637,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="19"/>
     </row>
   </sheetData>
@@ -7327,7 +7659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -7335,12 +7667,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7349,7 +7681,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7357,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -7365,7 +7697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -7378,7 +7710,7 @@
         <v>4.0303030303030303</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -7391,7 +7723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -7404,7 +7736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -7420,7 +7752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -7436,7 +7768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -7449,7 +7781,7 @@
         <v>10.520388709337794</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -7465,7 +7797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -7481,7 +7813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -7497,13 +7829,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
@@ -7511,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -7519,13 +7851,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
     <col min="2" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -7533,7 +7865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -7541,7 +7873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -7549,7 +7881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -7557,7 +7889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7578,7 +7910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>22</v>
       </c>
@@ -7592,7 +7924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="34"/>
       <c r="C8" t="s">
@@ -7602,7 +7934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="34"/>
       <c r="C9" t="s">
@@ -7612,7 +7944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="34" t="s">
         <v>42</v>
@@ -7624,7 +7956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="34"/>
       <c r="C11" t="s">
@@ -7634,7 +7966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>46</v>
       </c>
@@ -7648,7 +7980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -7656,7 +7988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="34"/>
       <c r="C14" t="s">
@@ -7666,7 +7998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="34"/>
       <c r="C15" t="s">
@@ -7676,7 +8008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="34" t="s">
         <v>42</v>
@@ -7691,7 +8023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="35"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -7702,7 +8034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="34"/>
       <c r="C18" t="s">
@@ -7712,7 +8044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -7729,7 +8061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -7746,7 +8078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -7763,7 +8095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -7780,7 +8112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -7797,7 +8129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -7829,7 +8161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -7837,9 +8169,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>3</v>
       </c>
@@ -7862,7 +8194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7889,7 +8221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7917,7 +8249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7945,7 +8277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7973,7 +8305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8001,7 +8333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -8022,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8043,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8064,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8085,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8106,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8120,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -8131,7 +8463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8139,7 +8471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8147,7 +8479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8155,7 +8487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8163,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8171,7 +8503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8179,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>7</v>
       </c>
@@ -8187,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8195,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8203,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8211,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8219,7 +8551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7</v>
       </c>
@@ -8227,7 +8559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8235,7 +8567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8243,7 +8575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
@@ -8251,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9</v>
       </c>
@@ -8259,7 +8591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -8267,17 +8599,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>2</v>
       </c>

--- a/data/basic stats.xlsx
+++ b/data/basic stats.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Dropbox (Personal)\gitrepos\tools\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanekercheval/Dropbox (Personal)/gitrepos/tools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="460" windowWidth="19460" windowHeight="8570" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16840" yWindow="-28800" windowWidth="25600" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Chi-square" sheetId="4" r:id="rId1"/>
@@ -41,8 +41,11 @@
     <definedName name="x_1">'t-test simple'!$B$2</definedName>
     <definedName name="x_2">'t-test simple'!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -56,7 +59,7 @@
     <author>shane kercheval</author>
   </authors>
   <commentList>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +971,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1011,14 +1014,21 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1283,7 +1293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1384,37 +1393,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,11 +1439,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1680577328"/>
-        <c:axId val="-1680576784"/>
+        <c:axId val="-1608461568"/>
+        <c:axId val="-1692301200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1680577328"/>
+        <c:axId val="-1608461568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1475,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1533,7 +1541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1680576784"/>
+        <c:crossAx val="-1692301200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1541,7 +1549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1680576784"/>
+        <c:axId val="-1692301200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1634,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1680577328"/>
+        <c:crossAx val="-1608461568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,7 +1655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2558,13 +2564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -3152,7 +3159,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>108</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>9.9520833333333325</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>110</v>
       </c>
@@ -3181,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>109</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
@@ -3205,7 +3212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>114</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>117</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>9.9520833333333325</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -3244,27 +3251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>112</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>111</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
@@ -3291,7 +3298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>0</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>24.009999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -3357,7 +3364,7 @@
         <v>41.159999999999989</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>2</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>3</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>7.5599999999999987</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>4</v>
       </c>
@@ -3405,7 +3412,7 @@
         <v>0.80999999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="14">
         <f>SUM(B59:B63)</f>
         <v>0.99999999999999989</v>
@@ -3419,12 +3426,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <f>A59</f>
         <v>0</v>
@@ -3454,7 +3461,7 @@
         <v>0.1649354435651815</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <f t="shared" ref="A67:D67" si="13">A60</f>
         <v>1</v>
@@ -3484,7 +3491,7 @@
         <v>1.2455199222546127</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <f t="shared" ref="A68:D68" si="17">A61</f>
         <v>2</v>
@@ -3514,7 +3521,7 @@
         <v>0.47360544217687051</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>135</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>0.31743130227001304</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>108</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>2.2014921102666776</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>110</v>
       </c>
@@ -3574,7 +3581,7 @@
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>109</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>114</v>
       </c>
@@ -3603,7 +3610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>117</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>2.2014921102666776</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -3633,17 +3640,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
         <v>112</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>111</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>143</v>
       </c>
@@ -3676,7 +3683,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
@@ -3720,7 +3727,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>147</v>
       </c>
@@ -3745,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>148</v>
       </c>
@@ -3767,7 +3774,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>153</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>2.2123671497584536</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>154</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>0.18164759725400451</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>155</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>1.5251505016722404</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
         <v>156</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>1.8846090534979438</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
         <v>157</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>0.15473684210526312</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>158</v>
       </c>
@@ -3928,7 +3935,7 @@
         <v>1.2992022792022797</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
         <v>108</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>7.2577134234901859</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>159</v>
       </c>
@@ -3947,7 +3954,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
         <v>160</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>109</v>
       </c>
@@ -3967,7 +3974,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>4</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>114</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>4.6051701859880909</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>117</v>
       </c>
@@ -3993,7 +4000,7 @@
         <v>7.2577134234901859</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -4014,12 +4021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>176</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
@@ -4035,7 +4042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>111</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
@@ -4060,63 +4067,67 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D112">
         <f>SUM(B112:C112)</f>
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E112" s="25">
         <f>D112/D$114</f>
-        <v>2.3134328358208954E-4</v>
+        <v>0.06</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B113">
         <f>B114-B112</f>
-        <v>55990</v>
+        <v>950</v>
       </c>
       <c r="C113">
         <f>C114-C112</f>
-        <v>77979</v>
+        <v>930</v>
       </c>
       <c r="D113">
         <f>SUM(B113:C113)</f>
-        <v>133969</v>
+        <v>1880</v>
       </c>
       <c r="E113" s="25">
         <f>D113/D$114</f>
-        <v>0.9997686567164179</v>
+        <v>0.94</v>
       </c>
       <c r="F113" s="25"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" s="39"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B114">
-        <v>56000</v>
+        <v>1000</v>
       </c>
       <c r="C114">
-        <v>78000</v>
+        <v>1000</v>
       </c>
       <c r="D114">
         <f t="shared" ref="D114" si="23">SUM(D112:D113)</f>
-        <v>134000</v>
+        <v>2000</v>
       </c>
       <c r="E114" s="2">
         <f>SUM(E112:E113)</f>
@@ -4124,17 +4135,17 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B115" s="26">
         <f>B114/$D114</f>
-        <v>0.41791044776119401</v>
+        <v>0.5</v>
       </c>
       <c r="C115" s="26">
         <f>C114/$D114</f>
-        <v>0.58208955223880599</v>
+        <v>0.5</v>
       </c>
       <c r="D115" s="26">
         <f>D114/$D114</f>
@@ -4143,7 +4154,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>97</v>
       </c>
@@ -4160,121 +4171,121 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="str">
         <f>CONCATENATE(B111, " - ", A112)</f>
         <v>A - clicks</v>
       </c>
       <c r="B118">
         <f>B112</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2">
         <f>B114*E112</f>
-        <v>12.955223880597014</v>
+        <v>60</v>
       </c>
       <c r="D118" s="2">
         <f>B118-C118</f>
-        <v>-2.9552238805970141</v>
+        <v>-10</v>
       </c>
       <c r="E118" s="2">
         <f>POWER(D118,2)</f>
-        <v>8.7333481844508754</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2">
         <f>E118/C118</f>
-        <v>0.67411788981360443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="str">
         <f>CONCATENATE(B111, " - ", A113)</f>
         <v>A - non-clicks</v>
       </c>
       <c r="B119">
         <f t="shared" ref="B119" si="24">B113</f>
-        <v>55990</v>
+        <v>950</v>
       </c>
       <c r="C119" s="2">
         <f>B114*E113</f>
-        <v>55987.044776119401</v>
+        <v>940</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" ref="D119:D121" si="25">B119-C119</f>
-        <v>2.9552238805990783</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2">
         <f t="shared" ref="E119:E121" si="26">POWER(D119,2)</f>
-        <v>8.7333481844630754</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" ref="F119:F121" si="27">E119/C119</f>
-        <v>1.5598873309684278E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.10638297872340426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="str">
         <f>CONCATENATE(C111, " - ", A112)</f>
         <v>B - clicks</v>
       </c>
       <c r="B120">
         <f>C112</f>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2">
         <f>C114*E112</f>
-        <v>18.044776119402986</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="25"/>
-        <v>2.9552238805970141</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2">
         <f t="shared" si="26"/>
-        <v>8.7333481844508754</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" si="27"/>
-        <v>0.48398207473797239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="str">
         <f>CONCATENATE(C111, " - ", A113)</f>
         <v>B - non-clicks</v>
       </c>
       <c r="B121">
         <f>C113</f>
-        <v>77979</v>
+        <v>930</v>
       </c>
       <c r="C121" s="2">
         <f>C114*E113</f>
-        <v>77981.955223880592</v>
+        <v>940</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="25"/>
-        <v>-2.9552238805918023</v>
+        <v>-10</v>
       </c>
       <c r="E121" s="2">
         <f t="shared" si="26"/>
-        <v>8.7333481844200715</v>
+        <v>100</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" si="27"/>
-        <v>1.1199191094077156E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.10638297872340426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B122" s="10"/>
       <c r="F122" s="19">
         <f>SUM(F118:F121)</f>
-        <v>1.1583679451956144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.5460992907801416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
         <v>159</v>
       </c>
@@ -4283,7 +4294,7 @@
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
         <v>160</v>
       </c>
@@ -4291,7 +4302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>109</v>
       </c>
@@ -4303,16 +4314,16 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B126" s="10">
         <v>0.05</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C126" s="36">
         <f>1-_xlfn.CHISQ.DIST(B128,B125,TRUE)</f>
-        <v>0.28180427153717069</v>
+        <v>5.96856055324263E-2</v>
       </c>
       <c r="D126" s="28" t="s">
         <v>173</v>
@@ -4321,7 +4332,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>114</v>
       </c>
@@ -4333,16 +4344,16 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="42">
         <f>F122</f>
-        <v>1.1583679451956144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.5460992907801416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>118</v>
       </c>
@@ -4352,7 +4363,7 @@
       </c>
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>119</v>
       </c>
@@ -4364,7 +4375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
         <v>178</v>
       </c>
@@ -4372,7 +4383,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>180</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>182</v>
       </c>
@@ -4388,7 +4399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>182</v>
       </c>
@@ -4396,7 +4407,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>182</v>
       </c>
@@ -4404,7 +4415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>180</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>182</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>182</v>
       </c>
@@ -4428,7 +4439,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>182</v>
       </c>
@@ -4436,7 +4447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>180</v>
       </c>
@@ -4444,7 +4455,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>180</v>
       </c>
@@ -4452,7 +4463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>180</v>
       </c>
@@ -4460,7 +4471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>180</v>
       </c>
@@ -4468,7 +4479,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>180</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>182</v>
       </c>
@@ -4484,7 +4495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>180</v>
       </c>
@@ -4492,7 +4503,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>182</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>180</v>
       </c>
@@ -4508,7 +4519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>182</v>
       </c>
@@ -4516,7 +4527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>182</v>
       </c>
@@ -4524,7 +4535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>182</v>
       </c>
@@ -4532,7 +4543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>180</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>182</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>112</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>184</v>
       </c>
@@ -4564,7 +4575,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>182</v>
       </c>
@@ -4581,7 +4592,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>181</v>
       </c>
@@ -4605,7 +4616,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>183</v>
       </c>
@@ -4626,7 +4637,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>147</v>
       </c>
@@ -4647,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>170</v>
       </c>
@@ -4665,7 +4676,7 @@
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>97</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="str">
         <f>CONCATENATE(B160, " - ", A161)</f>
         <v>Cat - Over</v>
@@ -4708,7 +4719,7 @@
         <v>1.1045454545454543</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="str">
         <f>CONCATENATE(B160, " - ", A162)</f>
         <v>Cat - Under</v>
@@ -4734,7 +4745,7 @@
         <v>0.92045454545454597</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="str">
         <f>CONCATENATE(C160, " - ", A161)</f>
         <v>No Cat - Over</v>
@@ -4760,7 +4771,7 @@
         <v>1.3254545454545461</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="str">
         <f>CONCATENATE(C160, " - ", A162)</f>
         <v>No Cat - Under</v>
@@ -4786,7 +4797,7 @@
         <v>1.1045454545454543</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
         <v>108</v>
       </c>
@@ -4796,7 +4807,7 @@
         <v>4.455000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
         <v>159</v>
       </c>
@@ -4805,7 +4816,7 @@
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
         <v>160</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>109</v>
       </c>
@@ -4825,7 +4836,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
         <v>4</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>114</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>117</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>4.455000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>118</v>
       </c>
@@ -4876,7 +4887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>119</v>
       </c>
@@ -4885,28 +4896,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
         <v>189</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>191</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>191</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>194</v>
       </c>
@@ -4938,7 +4949,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>191</v>
       </c>
@@ -4946,7 +4957,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>191</v>
       </c>
@@ -4954,7 +4965,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>194</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>194</v>
       </c>
@@ -4970,7 +4981,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>194</v>
       </c>
@@ -4978,7 +4989,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>191</v>
       </c>
@@ -4986,7 +4997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>194</v>
       </c>
@@ -4994,7 +5005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>194</v>
       </c>
@@ -5002,7 +5013,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>191</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>191</v>
       </c>
@@ -5018,7 +5029,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>194</v>
       </c>
@@ -5026,7 +5037,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>191</v>
       </c>
@@ -5034,7 +5045,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>194</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
         <v>112</v>
       </c>
@@ -5050,7 +5061,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
         <v>184</v>
       </c>
@@ -5058,7 +5069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
         <v>195</v>
       </c>
@@ -5076,7 +5087,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>194</v>
       </c>
@@ -5102,7 +5113,7 @@
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>191</v>
       </c>
@@ -5127,7 +5138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>198</v>
       </c>
@@ -5152,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>170</v>
       </c>
@@ -5173,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B212" s="30" t="s">
         <v>97</v>
       </c>
@@ -5190,7 +5201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="str">
         <f>CONCATENATE(B206, " - ", A207)</f>
         <v>home - high school</v>
@@ -5216,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="str">
         <f>CONCATENATE(B206, " - ", A208)</f>
         <v>home - college</v>
@@ -5242,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="str">
         <f>CONCATENATE(C206, " - ", A207)</f>
         <v>birthing center - high school</v>
@@ -5268,7 +5279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="str">
         <f>CONCATENATE(C206, " - ", A208)</f>
         <v>birthing center - college</v>
@@ -5294,7 +5305,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="str">
         <f>CONCATENATE(D206, " - ", A207)</f>
         <v>hospital - high school</v>
@@ -5320,7 +5331,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="str">
         <f>CONCATENATE(D206, " - ", A208)</f>
         <v>hospital - college</v>
@@ -5346,7 +5357,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="16" t="s">
         <v>108</v>
       </c>
@@ -5356,7 +5367,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="16" t="s">
         <v>159</v>
       </c>
@@ -5365,7 +5376,7 @@
       </c>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
         <v>160</v>
       </c>
@@ -5373,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
         <v>109</v>
       </c>
@@ -5385,7 +5396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
         <v>114</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
         <v>117</v>
       </c>
@@ -5424,7 +5435,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>118</v>
       </c>
@@ -5434,7 +5445,7 @@
       </c>
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>119</v>
       </c>
@@ -5446,12 +5457,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
         <v>201</v>
       </c>
@@ -5459,7 +5470,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>203</v>
       </c>
@@ -5467,7 +5478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>203</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>203</v>
       </c>
@@ -5483,7 +5494,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>203</v>
       </c>
@@ -5491,7 +5502,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>203</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>203</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>203</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>203</v>
       </c>
@@ -5523,7 +5534,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>203</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>203</v>
       </c>
@@ -5539,7 +5550,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>203</v>
       </c>
@@ -5547,7 +5558,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>203</v>
       </c>
@@ -5555,7 +5566,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>208</v>
       </c>
@@ -5563,7 +5574,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>208</v>
       </c>
@@ -5571,7 +5582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>208</v>
       </c>
@@ -5579,7 +5590,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>208</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>208</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>208</v>
       </c>
@@ -5603,7 +5614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>208</v>
       </c>
@@ -5611,7 +5622,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>208</v>
       </c>
@@ -5619,7 +5630,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>208</v>
       </c>
@@ -5627,7 +5638,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>208</v>
       </c>
@@ -5635,7 +5646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>208</v>
       </c>
@@ -5643,7 +5654,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>208</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>208</v>
       </c>
@@ -5659,7 +5670,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>208</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>208</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>208</v>
       </c>
@@ -5683,7 +5694,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>209</v>
       </c>
@@ -5691,7 +5702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>209</v>
       </c>
@@ -5699,7 +5710,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>209</v>
       </c>
@@ -5707,7 +5718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>209</v>
       </c>
@@ -5715,7 +5726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>209</v>
       </c>
@@ -5723,7 +5734,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>209</v>
       </c>
@@ -5731,7 +5742,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>209</v>
       </c>
@@ -5739,7 +5750,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>209</v>
       </c>
@@ -5747,7 +5758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>209</v>
       </c>
@@ -5755,7 +5766,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>209</v>
       </c>
@@ -5763,7 +5774,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>209</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>209</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>209</v>
       </c>
@@ -5787,7 +5798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>209</v>
       </c>
@@ -5795,7 +5806,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>209</v>
       </c>
@@ -5803,7 +5814,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>209</v>
       </c>
@@ -5811,7 +5822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>209</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>209</v>
       </c>
@@ -5827,7 +5838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>209</v>
       </c>
@@ -5835,7 +5846,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>209</v>
       </c>
@@ -5843,7 +5854,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>209</v>
       </c>
@@ -5851,7 +5862,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>209</v>
       </c>
@@ -5859,7 +5870,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="18" t="s">
         <v>112</v>
       </c>
@@ -5867,7 +5878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="18" t="s">
         <v>184</v>
       </c>
@@ -5875,7 +5886,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
         <v>203</v>
       </c>
@@ -5895,7 +5906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>204</v>
       </c>
@@ -5923,7 +5934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>205</v>
       </c>
@@ -5948,7 +5959,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>206</v>
       </c>
@@ -5973,7 +5984,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>207</v>
       </c>
@@ -5998,7 +6009,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>198</v>
       </c>
@@ -6023,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>170</v>
       </c>
@@ -6044,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B294" s="30" t="s">
         <v>97</v>
       </c>
@@ -6061,7 +6072,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="str">
         <f>CONCATENATE(B$286, " - ", A287)</f>
         <v>human resources - park</v>
@@ -6087,7 +6098,7 @@
         <v>1.2272222222222222</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="str">
         <f t="shared" ref="A296:A298" si="42">CONCATENATE(B$286, " - ", A288)</f>
         <v>human resources - restaurant</v>
@@ -6113,7 +6124,7 @@
         <v>0.1499999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="12" t="str">
         <f t="shared" si="42"/>
         <v>human resources - boss's house</v>
@@ -6139,7 +6150,7 @@
         <v>0.15515151515151521</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="12" t="str">
         <f t="shared" si="42"/>
         <v>human resources - ice skating rink</v>
@@ -6165,7 +6176,7 @@
         <v>0.9035294117647058</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="str">
         <f>CONCATENATE(C$286, " - ", A287)</f>
         <v>accounting - park</v>
@@ -6191,7 +6202,7 @@
         <v>0.18374999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="str">
         <f t="shared" ref="A300:A302" si="48">CONCATENATE(C$286, " - ", A288)</f>
         <v>accounting - restaurant</v>
@@ -6217,7 +6228,7 @@
         <v>1.2500000000000022E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="12" t="str">
         <f t="shared" si="48"/>
         <v>accounting - boss's house</v>
@@ -6243,7 +6254,7 @@
         <v>3.4404545454545454</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="str">
         <f t="shared" si="48"/>
         <v>accounting - ice skating rink</v>
@@ -6269,7 +6280,7 @@
         <v>1.0944117647058826</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="12" t="str">
         <f>CONCATENATE(D$286, " - ", A287)</f>
         <v>customer service - park</v>
@@ -6295,7 +6306,7 @@
         <v>1.401212121212122</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="12" t="str">
         <f t="shared" ref="A304:A306" si="53">CONCATENATE(D$286, " - ", A288)</f>
         <v>customer service - restaurant</v>
@@ -6321,7 +6332,7 @@
         <v>3.6363636363636424E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="str">
         <f t="shared" si="53"/>
         <v>customer service - boss's house</v>
@@ -6347,7 +6358,7 @@
         <v>1.6664462809917355</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="12" t="str">
         <f t="shared" si="53"/>
         <v>customer service - ice skating rink</v>
@@ -6373,7 +6384,7 @@
         <v>3.6149732620320792E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="16" t="s">
         <v>108</v>
       </c>
@@ -6383,7 +6394,7 @@
         <v>10.307191230486685</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="16" t="s">
         <v>159</v>
       </c>
@@ -6392,7 +6403,7 @@
       </c>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="16" t="s">
         <v>160</v>
       </c>
@@ -6400,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="12" t="s">
         <v>109</v>
       </c>
@@ -6412,7 +6423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="12" t="s">
         <v>4</v>
       </c>
@@ -6430,7 +6441,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="12" t="s">
         <v>114</v>
       </c>
@@ -6442,7 +6453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="12" t="s">
         <v>117</v>
       </c>
@@ -6451,7 +6462,7 @@
         <v>10.307191230486685</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>118</v>
       </c>
@@ -6461,7 +6472,7 @@
       </c>
       <c r="C314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>119</v>
       </c>
@@ -6550,13 +6561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6579,17 +6590,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>0.49399999999999999</v>
       </c>
       <c r="C2">
         <v>7558</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="35">
         <f>B2*C$6</f>
         <v>17321.121999999999</v>
       </c>
@@ -6606,17 +6617,17 @@
         <v>5503.0240643119996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>8.8869900000000002E-2</v>
       </c>
       <c r="C3">
         <v>2968</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <f>B3*C$6</f>
         <v>3116.0453037000002</v>
       </c>
@@ -6633,17 +6644,17 @@
         <v>7.0337269877304101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>0.29854732</v>
       </c>
       <c r="C4">
         <v>17675</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <f>B4*C$6</f>
         <v>10467.96468116</v>
       </c>
@@ -6660,17 +6671,17 @@
         <v>4961.9347857076782</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>3.3112580000000003E-2</v>
       </c>
       <c r="C5">
         <v>1687</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="35">
         <f>B5*C$6</f>
         <v>1161.0263925400002</v>
       </c>
@@ -6687,7 +6698,7 @@
         <v>238.2790240790799</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
@@ -6707,7 +6718,7 @@
         <v>10710.271601086488</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>110</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>109</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>114</v>
       </c>
@@ -6751,7 +6762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>117</v>
       </c>
@@ -6760,7 +6771,7 @@
         <v>10710.271601086488</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -6769,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -6778,11 +6789,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>112</v>
       </c>
@@ -6790,7 +6801,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>111</v>
       </c>
@@ -6827,7 +6838,7 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
@@ -7329,7 +7340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E35" s="13" t="s">
         <v>147</v>
       </c>
@@ -7345,7 +7356,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -7353,7 +7364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -7366,7 +7377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>235</v>
       </c>
@@ -7382,7 +7393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>236</v>
       </c>
@@ -7401,7 +7412,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -7410,7 +7421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -7442,7 +7453,7 @@
         <v>2.0484071417952445</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -7453,7 +7464,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>1.3362430854349434</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -7473,7 +7484,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -7484,7 +7495,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
@@ -7501,7 +7512,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -7637,21 +7648,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="19"/>
     </row>
   </sheetData>
@@ -7667,7 +7678,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -7851,7 +7862,7 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
     <col min="2" max="7" width="16.5" customWidth="1"/>
@@ -7910,11 +7921,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
@@ -7924,9 +7935,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -7934,9 +7945,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="34"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37"/>
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -7944,9 +7955,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
@@ -7956,9 +7967,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -7966,31 +7977,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="34"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7998,9 +8009,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -8008,12 +8019,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
@@ -8023,10 +8034,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" t="s">
         <v>45</v>
       </c>
@@ -8034,9 +8045,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -8044,7 +8055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8061,7 +8072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -8078,7 +8089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -8095,7 +8106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -8112,7 +8123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -8129,7 +8140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -8169,9 +8180,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -8194,7 +8205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8249,7 +8260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8305,7 +8316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8333,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8375,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8396,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8417,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8438,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8452,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -8463,7 +8474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8471,7 +8482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8487,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -8495,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -8503,7 +8514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8511,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -8519,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8527,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8535,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8543,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8551,7 +8562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -8559,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8575,7 +8586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -8583,7 +8594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
@@ -8591,7 +8602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -8599,17 +8610,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2</v>
       </c>
